--- a/Project QA Mars _ Test Cases .xlsx
+++ b/Project QA Mars _ Test Cases .xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Test Scenarios" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Test Case" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="354">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -102,6 +103,138 @@
   </si>
   <si>
     <t>Check that Existing User can delete the Skills and Level.</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>To verify that Existing User can edit the First name and Last name from the Profile panel dashboard.</t>
+  </si>
+  <si>
+    <t>Check that Exisiting User can click on the dropdown button to edit the First name and last name.</t>
+  </si>
+  <si>
+    <t>Check that Exisiting User can edit the First name and last name.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can receive error message while hitting the Save button without entering the first and last name.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can enter the blank space in first and last name.</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>To verify that Existing User can edit the Availability.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the edit icon of the availability.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the cross icon of the availability.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can change the availability value.</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>To verify that Existing User can edit the Hours.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the edit icon of the hours.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the cross icon of the hours.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can change the hours value.</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>To verify that Existing User can edit the Earn Target.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the edit icon of the earn target.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the cross icon of the earn target.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can edit the earn target.</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>To verify that Existing User can edit the Description.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the pencil icon of the description</t>
+  </si>
+  <si>
+    <t>Check that Existing User can receive error while entering description without first character of digit or letter.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can enter the description.</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>To verify that Exisiting User can add the educations and other details.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the Education tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the Add New button from the Education tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can not  add the educations and other details without without entering each of them from the Education tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the Cancel button from the Education tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can add the educations and other details from the Education tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can edit the educations and other details from the Education tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can delete the educations and other details from the Education tab.</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>To verify that Exisiting User can add the certification and other details.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the Certification tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the Add New button from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can not  add the certification and other details without without entering each of them from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can click on the Cancel button from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can add the certification and other details from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can edit the certification and other details from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Check that Existing User can delete the certification and other details from the Certification tab.</t>
   </si>
   <si>
     <t>Test Case for Mars QA Project</t>
@@ -436,6 +569,9 @@
     <t>User should navigated to Send Verification Email window.</t>
   </si>
   <si>
+    <t>User clicked on 'Login' button and receiver error message.</t>
+  </si>
+  <si>
     <t>TC_008</t>
   </si>
   <si>
@@ -605,13 +741,482 @@
   </si>
   <si>
     <t>Existing User can delete the Skills and Level.</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Exisiting User can click on the dropdown button to edit the First name and last name.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the edit dropdown.</t>
+  </si>
+  <si>
+    <t>User should click on Edit dropdown.</t>
+  </si>
+  <si>
+    <t>User clicked on Edit dropdown</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>Exisiting User can edit the First name and last name.</t>
+  </si>
+  <si>
+    <t>Step 2: Enter the First and Last name.</t>
+  </si>
+  <si>
+    <t>First name : ABC,
+Last name : DEF</t>
+  </si>
+  <si>
+    <t>User should enter First and 
+Last name.</t>
+  </si>
+  <si>
+    <t>User entered First and 
+Last name.</t>
+  </si>
+  <si>
+    <t>Step 3: Click on 'Save' button.</t>
+  </si>
+  <si>
+    <t>User should click on 'Save' button.</t>
+  </si>
+  <si>
+    <t>User clicked on 'Save' button.</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>Existing User can receive error message while hitting the Save button without entering the first and last name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name : 
+Last name : </t>
+  </si>
+  <si>
+    <t>User should enter First and 
+Last name as blank.</t>
+  </si>
+  <si>
+    <t>User entered First and 
+Last name as blank.</t>
+  </si>
+  <si>
+    <t>User should click on 'Save' button and receive error message.</t>
+  </si>
+  <si>
+    <t>User clicked on 'Save' button and received error message..</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>Existing User can enter the blank space in first and last name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name :  
+Last name :  </t>
+  </si>
+  <si>
+    <t>User should enter First and 
+Last name as white space.</t>
+  </si>
+  <si>
+    <t>User entered First and 
+Last name as white space.</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>Existing User can click on the edit icon of the availability.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the edit icon of the availability.</t>
+  </si>
+  <si>
+    <t>User should click on Edit icon.</t>
+  </si>
+  <si>
+    <t>User clicked on Edit icon.</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>Existing User can click on the cross icon of the availability.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the cross icon of the availability.</t>
+  </si>
+  <si>
+    <t>User should click on Cross icon.</t>
+  </si>
+  <si>
+    <t>User clicked on Cross icon.</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>Step 2: Click on the dropdown of of the availability. and select the value.</t>
+  </si>
+  <si>
+    <t>Value: Full Time</t>
+  </si>
+  <si>
+    <t>User should change the value of the availability.</t>
+  </si>
+  <si>
+    <t>User changed the value of the availability.</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>Existing User can click on the edit icon of the hours.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the edit icon of the hours.</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>Existing User can click on the cross icon of the hours.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the cross icon of the hours.</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>Step 2: Click on the dropdown of of the hours and select the value.</t>
+  </si>
+  <si>
+    <t>Value: As needed</t>
+  </si>
+  <si>
+    <t>User should change the value of the hours.</t>
+  </si>
+  <si>
+    <t>User changed the value of the hours.</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>Existing User can click on the edit icon of the earn target.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the edit icon of the earn target.</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>Existing User can click on the cross icon of the earn target.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the cross icon of the earn target.</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>Existing User can change the earn target value.</t>
+  </si>
+  <si>
+    <t>Step 2: Click on the dropdown of of the earn target and select the value.</t>
+  </si>
+  <si>
+    <t>Value: More than $1000 per month</t>
+  </si>
+  <si>
+    <t>User should change the value of the earn target.</t>
+  </si>
+  <si>
+    <t>User changed the value of the earn target.</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>Existing User can click on the pencil icon of the description</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the edit icon of the description.</t>
+  </si>
+  <si>
+    <t>User should click on Edit icon of the description.</t>
+  </si>
+  <si>
+    <t>User clicked on Edit icon of the description.</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Existing User can receive error while entering description without first character of digit or letter.</t>
+  </si>
+  <si>
+    <t>Step 2: Enter the description in description box.</t>
+  </si>
+  <si>
+    <t>Description: 
+ This is a sample description.</t>
+  </si>
+  <si>
+    <t>User should enter the description.</t>
+  </si>
+  <si>
+    <t>User entered description.</t>
+  </si>
+  <si>
+    <t>Step 3: Clcik on the Save button.</t>
+  </si>
+  <si>
+    <t>User should click on Save button.</t>
+  </si>
+  <si>
+    <t>User clicked on Save button.</t>
+  </si>
+  <si>
+    <t>Step 4: User receive error message.</t>
+  </si>
+  <si>
+    <t>User should receive error message.</t>
+  </si>
+  <si>
+    <t>User received error message.</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>Existing User can enter the description.</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>Existing User can click on the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the Education tab.</t>
+  </si>
+  <si>
+    <t>User should click on Education tab.</t>
+  </si>
+  <si>
+    <t>User clicked on Education tab.</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>Existing User can click on the Add New button from the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 2: Click on the Add New button.</t>
+  </si>
+  <si>
+    <t>User should click on Add New button</t>
+  </si>
+  <si>
+    <t>User clicked on Add New button</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>Existing User can not  add the educations and other details without without entering each of them from the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 3: Click on the Add button.</t>
+  </si>
+  <si>
+    <t>User should click on Add button</t>
+  </si>
+  <si>
+    <t>User clicked on Add button</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>Existing User can click on the Cancel button from the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 3: Click on the Cancel button.</t>
+  </si>
+  <si>
+    <t>User should click on Cancel button</t>
+  </si>
+  <si>
+    <t>User clicked on Cancel button</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>Existing User can add the educations and other details from the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 3: Enter Educcation details.</t>
+  </si>
+  <si>
+    <t>College/Uni. Name: Royal College
+Country of College/Uni.: New Zealand
+Title: MFA
+Degree: CS
+Year of Graduation: 2023</t>
+  </si>
+  <si>
+    <t>User should enter Educcation details.</t>
+  </si>
+  <si>
+    <t>User entered Educcation details.</t>
+  </si>
+  <si>
+    <t>Step 4: Click on the Add button.</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>Existing User can edit the educations and other details from the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 2: Click on the Edit button.</t>
+  </si>
+  <si>
+    <t>User should click on Edit button</t>
+  </si>
+  <si>
+    <t>User clicked on Edit button</t>
+  </si>
+  <si>
+    <t>Step 3: Edit Educcation details.</t>
+  </si>
+  <si>
+    <t>College/Uni. Name: Saint University
+Country of College/Uni.: Australia
+Title: PHD
+Degree: MBBS
+Year of Graduation: 2022</t>
+  </si>
+  <si>
+    <t>User should edit Educcation details.</t>
+  </si>
+  <si>
+    <t>User edited Educcation details.</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>Existing User can delete the educations and other details from the Education tab.</t>
+  </si>
+  <si>
+    <t>Step 2: Click on the 'Delete' button.</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>Existing User can click on the Certification tab.</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the Certification tab.</t>
+  </si>
+  <si>
+    <t>User should click on Certification tab.</t>
+  </si>
+  <si>
+    <t>User clicked on Certification tab.</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>Existing User can click on the Add New button from the Certification tab.</t>
+  </si>
+  <si>
+    <t>TC_041</t>
+  </si>
+  <si>
+    <t>Existing User can not  add the certification and other details without without entering each of them from the Certification tab.</t>
+  </si>
+  <si>
+    <t>TC_042</t>
+  </si>
+  <si>
+    <t>Existing User can click on the Cancel button from the Certification tab.</t>
+  </si>
+  <si>
+    <t>User should click on Certification  tab.</t>
+  </si>
+  <si>
+    <t>User clicked on Certification  tab.</t>
+  </si>
+  <si>
+    <t>TC_043</t>
+  </si>
+  <si>
+    <t>Existing User can add the certification and other details from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Step 3: Enter Certification details.</t>
+  </si>
+  <si>
+    <t>Certificate/Award Name: Certificate 1
+Certificate/Award From: MVP Studio
+Year: 2020</t>
+  </si>
+  <si>
+    <t>User should enter Certification details.</t>
+  </si>
+  <si>
+    <t>User entered Certification details.</t>
+  </si>
+  <si>
+    <t>TC_044</t>
+  </si>
+  <si>
+    <t>Existing User can edit the certification and other details from the Certification tab.</t>
+  </si>
+  <si>
+    <t>Step 3: Edit Certification details.</t>
+  </si>
+  <si>
+    <t>Certificate/Award Name: Certificate 2
+Certificate/Award From: Industry Connect
+Year: 2019</t>
+  </si>
+  <si>
+    <t>User should edit Certification details.</t>
+  </si>
+  <si>
+    <t>User edited Certification details.</t>
+  </si>
+  <si>
+    <t>TC_045</t>
+  </si>
+  <si>
+    <t>Existing User can delete the certification and other details from the Certification tab.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -645,6 +1250,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -672,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -706,6 +1317,12 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -719,6 +1336,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -980,78 +1601,290 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1081,75 +1914,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1163,100 +1996,100 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8"/>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8"/>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8"/>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8"/>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1267,44 +2100,44 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -1318,100 +2151,100 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -1422,123 +2255,123 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -1552,100 +2385,100 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="8"/>
       <c r="C29" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="8"/>
       <c r="C30" s="6" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="8"/>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="8"/>
       <c r="C32" s="6" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -1656,100 +2489,100 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="8"/>
       <c r="C35" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="8"/>
       <c r="C36" s="6" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="8"/>
       <c r="C37" s="6" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="8"/>
       <c r="C38" s="6" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1760,64 +2593,64 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="8"/>
       <c r="C41" s="6" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -1828,64 +2661,64 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="8"/>
       <c r="C45" s="6" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="8"/>
       <c r="C46" s="6" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -1896,64 +2729,64 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="8"/>
       <c r="C49" s="6" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="8"/>
       <c r="C50" s="6" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
@@ -1964,25 +2797,25 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -1993,64 +2826,64 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="8"/>
       <c r="C55" s="6" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="8"/>
       <c r="C56" s="6" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
@@ -2061,64 +2894,64 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="8"/>
       <c r="C59" s="6" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="8"/>
       <c r="C60" s="6" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
@@ -2129,64 +2962,64 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="8"/>
       <c r="C63" s="6" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="8"/>
       <c r="C64" s="6" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -2197,25 +3030,25 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
@@ -2225,10 +3058,27 @@
       <c r="F67" s="8"/>
     </row>
     <row r="68">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="A68" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="8"/>
@@ -2237,22 +3087,66 @@
       <c r="F69" s="8"/>
     </row>
     <row r="70">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="A70" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="C71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="C72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="8"/>
@@ -2261,22 +3155,66 @@
       <c r="F73" s="8"/>
     </row>
     <row r="74">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="A74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="C75" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="76">
       <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="C76" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="77">
       <c r="B77" s="8"/>
@@ -2285,22 +3223,66 @@
       <c r="F77" s="8"/>
     </row>
     <row r="78">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+      <c r="A78" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="79">
       <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="C79" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="80">
       <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
+      <c r="C80" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" s="8"/>
@@ -2309,10 +3291,27 @@
       <c r="F81" s="8"/>
     </row>
     <row r="82">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
+      <c r="A82" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="83">
       <c r="B83" s="8"/>
@@ -2321,16 +3320,45 @@
       <c r="F83" s="8"/>
     </row>
     <row r="84">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="A84" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
+      <c r="C85" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="86">
       <c r="B86" s="8"/>
@@ -2339,16 +3367,48 @@
       <c r="F86" s="8"/>
     </row>
     <row r="87">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
+      <c r="A87" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="C88" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" s="8"/>
@@ -2357,10 +3417,27 @@
       <c r="F89" s="8"/>
     </row>
     <row r="90">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
+      <c r="A90" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="91">
       <c r="B91" s="8"/>
@@ -2369,16 +3446,45 @@
       <c r="F91" s="8"/>
     </row>
     <row r="92">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+      <c r="A92" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="93">
       <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="C93" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" s="8"/>
@@ -2387,16 +3493,48 @@
       <c r="F94" s="8"/>
     </row>
     <row r="95">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
+      <c r="A95" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="96">
       <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
+      <c r="C96" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="8"/>
@@ -2405,10 +3543,27 @@
       <c r="F97" s="8"/>
     </row>
     <row r="98">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="A98" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" s="8"/>
@@ -2417,16 +3572,45 @@
       <c r="F99" s="8"/>
     </row>
     <row r="100">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+      <c r="A100" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="101">
       <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+      <c r="C101" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="102">
       <c r="B102" s="8"/>
@@ -2435,16 +3619,48 @@
       <c r="F102" s="8"/>
     </row>
     <row r="103">
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
+      <c r="A103" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
+      <c r="C104" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="105">
       <c r="B105" s="8"/>
@@ -2453,10 +3669,27 @@
       <c r="F105" s="8"/>
     </row>
     <row r="106">
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
+      <c r="A106" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="107">
       <c r="B107" s="8"/>
@@ -2465,52 +3698,151 @@
       <c r="F107" s="8"/>
     </row>
     <row r="108">
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
+      <c r="A108" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="109">
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="110">
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="111">
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="112">
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
     </row>
     <row r="113">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
+      <c r="A113" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="114">
       <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
+      <c r="C114" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="115">
       <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="C115" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="116">
       <c r="B116" s="8"/>
@@ -2519,34 +3851,84 @@
       <c r="F116" s="8"/>
     </row>
     <row r="117">
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
+      <c r="A117" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="118">
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
     </row>
     <row r="119">
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
     </row>
     <row r="120">
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
+      <c r="A120" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="121">
       <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
+      <c r="C121" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="122">
       <c r="B122" s="8"/>
@@ -2555,28 +3937,81 @@
       <c r="F122" s="8"/>
     </row>
     <row r="123">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
+      <c r="A123" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="124">
       <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
+      <c r="C124" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="125">
       <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
+      <c r="C125" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="126">
       <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
+      <c r="C126" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="127">
       <c r="B127" s="8"/>
@@ -2585,52 +4020,149 @@
       <c r="F127" s="8"/>
     </row>
     <row r="128">
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
+      <c r="A128" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="129">
       <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
+      <c r="C129" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="130">
       <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
+      <c r="C130" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="131">
       <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
+      <c r="C131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
+      <c r="A132" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="133">
       <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
+      <c r="C133" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="134">
       <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
+      <c r="C134" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="135">
       <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
+      <c r="C135" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="136">
       <c r="B136" s="8"/>
@@ -2639,28 +4171,84 @@
       <c r="F136" s="8"/>
     </row>
     <row r="137">
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
+      <c r="A137" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="138">
       <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
+      <c r="C138" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="139">
       <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
+      <c r="C139" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="140">
       <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
+      <c r="C140" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="141">
       <c r="B141" s="8"/>
@@ -2669,16 +4257,45 @@
       <c r="F141" s="8"/>
     </row>
     <row r="142">
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
+      <c r="A142" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="143">
       <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
+      <c r="C143" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="144">
       <c r="B144" s="8"/>
@@ -2687,10 +4304,27 @@
       <c r="F144" s="8"/>
     </row>
     <row r="145">
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
+      <c r="A145" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="146">
       <c r="B146" s="8"/>
@@ -2699,16 +4333,45 @@
       <c r="F146" s="8"/>
     </row>
     <row r="147">
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
+      <c r="A147" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="148">
       <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
+      <c r="C148" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="149">
       <c r="B149" s="8"/>
@@ -2717,28 +4380,81 @@
       <c r="F149" s="8"/>
     </row>
     <row r="150">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
+      <c r="A150" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="151">
       <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
+      <c r="C151" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="152">
       <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
+      <c r="C152" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="153">
       <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
+      <c r="C153" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="154">
       <c r="B154" s="8"/>
@@ -2747,22 +4463,63 @@
       <c r="F154" s="8"/>
     </row>
     <row r="155">
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
+      <c r="A155" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="156">
       <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
+      <c r="C156" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="157">
       <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
+      <c r="C157" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="158">
       <c r="B158" s="8"/>
@@ -2771,28 +4528,84 @@
       <c r="F158" s="8"/>
     </row>
     <row r="159">
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
+      <c r="A159" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="160">
       <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
+      <c r="C160" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="161">
       <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
+      <c r="C161" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="162">
       <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
+      <c r="C162" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="163">
       <c r="B163" s="8"/>
@@ -2801,28 +4614,84 @@
       <c r="F163" s="8"/>
     </row>
     <row r="164">
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
+      <c r="A164" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="165">
       <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
+      <c r="C165" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="166">
       <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
+      <c r="C166" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="167">
       <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
+      <c r="C167" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="168">
       <c r="B168" s="8"/>
@@ -2831,16 +4700,45 @@
       <c r="F168" s="8"/>
     </row>
     <row r="169">
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
+      <c r="A169" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="170">
       <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
+      <c r="C170" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="171">
       <c r="B171" s="8"/>
@@ -2849,34 +4747,33 @@
       <c r="F171" s="8"/>
     </row>
     <row r="172">
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
+      <c r="C172" s="9"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173">
       <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
+      <c r="C173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174">
       <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
+      <c r="C174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="10"/>
     </row>
     <row r="175">
       <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
+      <c r="C175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176">
       <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
+      <c r="C176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177">
       <c r="B177" s="8"/>
@@ -7899,6 +9796,54 @@
       <c r="C1013" s="8"/>
       <c r="E1013" s="8"/>
       <c r="F1013" s="8"/>
+    </row>
+    <row r="1014">
+      <c r="B1014" s="8"/>
+      <c r="C1014" s="8"/>
+      <c r="E1014" s="8"/>
+      <c r="F1014" s="8"/>
+    </row>
+    <row r="1015">
+      <c r="B1015" s="8"/>
+      <c r="C1015" s="8"/>
+      <c r="E1015" s="8"/>
+      <c r="F1015" s="8"/>
+    </row>
+    <row r="1016">
+      <c r="B1016" s="8"/>
+      <c r="C1016" s="8"/>
+      <c r="E1016" s="8"/>
+      <c r="F1016" s="8"/>
+    </row>
+    <row r="1017">
+      <c r="B1017" s="8"/>
+      <c r="C1017" s="8"/>
+      <c r="E1017" s="8"/>
+      <c r="F1017" s="8"/>
+    </row>
+    <row r="1018">
+      <c r="B1018" s="8"/>
+      <c r="C1018" s="8"/>
+      <c r="E1018" s="8"/>
+      <c r="F1018" s="8"/>
+    </row>
+    <row r="1019">
+      <c r="B1019" s="8"/>
+      <c r="C1019" s="8"/>
+      <c r="E1019" s="8"/>
+      <c r="F1019" s="8"/>
+    </row>
+    <row r="1020">
+      <c r="B1020" s="8"/>
+      <c r="C1020" s="8"/>
+      <c r="E1020" s="8"/>
+      <c r="F1020" s="8"/>
+    </row>
+    <row r="1021">
+      <c r="B1021" s="8"/>
+      <c r="C1021" s="8"/>
+      <c r="E1021" s="8"/>
+      <c r="F1021" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7915,4 +9860,18 @@
   </hyperlinks>
   <drawing r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>